--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04278827812797773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08213423961616781</v>
+        <v>0.08213423961616778</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07066446350932769</v>
@@ -697,7 +697,7 @@
         <v>0.05207122020689711</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09984074495595488</v>
+        <v>0.09984074495595487</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04527623656370591</v>
+        <v>0.04612792744791607</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03812762498565515</v>
+        <v>0.03830817851938411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02569091359774551</v>
+        <v>0.0253042255162361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04758099393865306</v>
+        <v>0.04756596012659191</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05031735757173417</v>
+        <v>0.04976908236047985</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06431916525127923</v>
+        <v>0.06405976839061178</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04074266282884323</v>
+        <v>0.04129545796289596</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07991759372075499</v>
+        <v>0.07513784690551224</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05320080691489822</v>
+        <v>0.0528617175873948</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05699542092186728</v>
+        <v>0.05702863494674136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03710506237613291</v>
+        <v>0.03816064232763766</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07227492888614878</v>
+        <v>0.06868227720490806</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09223758359805088</v>
+        <v>0.09221692494885154</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08236206582487075</v>
+        <v>0.08116126076917307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06987890639759417</v>
+        <v>0.06561987634202282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.133713455468274</v>
+        <v>0.131740998912867</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09812395249612019</v>
+        <v>0.09828641674606119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1199337878769616</v>
+        <v>0.1198270078772958</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08624579467981169</v>
+        <v>0.08894273190485229</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1775772162673634</v>
+        <v>0.1734056736946917</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08512092403848401</v>
+        <v>0.08766689344116338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09269433933459414</v>
+        <v>0.09090955321356552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06960434114366264</v>
+        <v>0.06845180921497805</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1390191219267232</v>
+        <v>0.1332557234390865</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0418974726701035</v>
+        <v>0.04246753628170211</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06442083116060636</v>
+        <v>0.06655945991995896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06136037473069832</v>
+        <v>0.0626358799680645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1213197059473457</v>
+        <v>0.1155984407846801</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1160951905881651</v>
+        <v>0.1152984560592094</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0680507877539939</v>
+        <v>0.06710140298964684</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08399571399633969</v>
+        <v>0.08116704936123736</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1247827856610085</v>
+        <v>0.1234132226871726</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08107975450104811</v>
+        <v>0.08220350069237567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07177788593442032</v>
+        <v>0.07154720062001207</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07837717779144272</v>
+        <v>0.07856192771409473</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1299753665529311</v>
+        <v>0.1306858030302336</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07793182248219108</v>
+        <v>0.07836742004189236</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1092748669047462</v>
+        <v>0.1110320255745813</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1087201012770787</v>
+        <v>0.1101418187465638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2024840819062932</v>
+        <v>0.2024635681740684</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1725519704931189</v>
+        <v>0.1714787336518822</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1142988177736502</v>
+        <v>0.1139042927383176</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1334075979511681</v>
+        <v>0.1345732820613354</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1911926118699201</v>
+        <v>0.1901427393466645</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1132201002501072</v>
+        <v>0.1162174355590876</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1039821813781297</v>
+        <v>0.1028993415493503</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1143111091561061</v>
+        <v>0.1146832390233697</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1849137818809871</v>
+        <v>0.1840197553502976</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1301477190521859</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2058636238456049</v>
+        <v>0.205863623845605</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08159194792593749</v>
+        <v>0.08529129722663589</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1007863266278522</v>
+        <v>0.09714269749935404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09233839568686067</v>
+        <v>0.09049065077409987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1529822231246833</v>
+        <v>0.1516570236448891</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1759872520603921</v>
+        <v>0.173384170223771</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1624920407454907</v>
+        <v>0.1602726196749143</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1220011537454884</v>
+        <v>0.1208582521427153</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2037170179009364</v>
+        <v>0.2012986158366269</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1391216983777997</v>
+        <v>0.1377269651070274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1386564166457457</v>
+        <v>0.1381486382523504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1135064396623774</v>
+        <v>0.1127743534132923</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1867583575057934</v>
+        <v>0.1849971744679713</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1306367810631681</v>
+        <v>0.1332848392341451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1524147893017788</v>
+        <v>0.1499076437241132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1418304497332716</v>
+        <v>0.1401385270428513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2173521987921706</v>
+        <v>0.2171291482017153</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2368859646954415</v>
+        <v>0.234861432477227</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2199671996512226</v>
+        <v>0.2195690290106718</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1740194133159832</v>
+        <v>0.1741226397578569</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.256818242929858</v>
+        <v>0.2570530437660619</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1801383854783118</v>
+        <v>0.1781812484643556</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1783378173126927</v>
+        <v>0.1803282591241158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1506214580884707</v>
+        <v>0.1519061739908846</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2286740385345814</v>
+        <v>0.2273310622473497</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1507307123539581</v>
+        <v>0.1509005117155909</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1112332587427747</v>
+        <v>0.110512367380476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1591103232516061</v>
+        <v>0.1576189525028095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2285820230363356</v>
+        <v>0.2265350087478187</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2608825632440671</v>
+        <v>0.2601574014808288</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.237953375400337</v>
+        <v>0.2339404148054675</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2059918545608891</v>
+        <v>0.2043723231350677</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3168783054627539</v>
+        <v>0.3188523856485327</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.215743804083013</v>
+        <v>0.2147079340559514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1818256191563073</v>
+        <v>0.182106277002906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.190996834278271</v>
+        <v>0.1891428181786503</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2826491923449039</v>
+        <v>0.283583259626909</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2225395758867178</v>
+        <v>0.2207280609265855</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.173673278193468</v>
+        <v>0.1742178643099461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2213315630354622</v>
+        <v>0.2215226366502558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2957828081923736</v>
+        <v>0.2944787345491566</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3438779752237275</v>
+        <v>0.3405270095370042</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3113326151105602</v>
+        <v>0.3087080616999556</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2755340344263674</v>
+        <v>0.2745024813205721</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3710053925804335</v>
+        <v>0.3714705735914402</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2712639063584476</v>
+        <v>0.2671375824005447</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.228731132887132</v>
+        <v>0.232371729894385</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2366658313577507</v>
+        <v>0.2348632002185755</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3275181590605365</v>
+        <v>0.3265932819908994</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4144911089862468</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4588318333625075</v>
+        <v>0.4588318333625077</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3470298325891972</v>
@@ -1241,7 +1241,7 @@
         <v>0.3319631967767009</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4179169660815674</v>
+        <v>0.4179169660815673</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2646141990053766</v>
+        <v>0.2626318602188249</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2246469136767984</v>
+        <v>0.2234071348749179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2075441061249968</v>
+        <v>0.2088213468765545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3386602225365266</v>
+        <v>0.3411554227883692</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3349342364003037</v>
+        <v>0.3343301269952192</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4121457620390108</v>
+        <v>0.4128494660698804</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3690425406639669</v>
+        <v>0.3674649187566294</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4281774508603268</v>
+        <v>0.4281708666947742</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3138311353855275</v>
+        <v>0.3155637804485485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3323994752420802</v>
+        <v>0.3344493490880269</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2957737591933267</v>
+        <v>0.2997851441245484</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3937705927717676</v>
+        <v>0.3943625073158017</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3594747921176209</v>
+        <v>0.3535814189912421</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3122440254789622</v>
+        <v>0.3102746281166073</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.287598924982158</v>
+        <v>0.2902982596709733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4173997108994351</v>
+        <v>0.4151860029932424</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.431719654218821</v>
+        <v>0.4329504592301487</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.510554251174827</v>
+        <v>0.5093625533288494</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4635712221284599</v>
+        <v>0.459864024433408</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4923952116053156</v>
+        <v>0.4890378040719725</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3817493305643023</v>
+        <v>0.3801857629979844</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3986392970193558</v>
+        <v>0.4003566294395122</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3641707266442947</v>
+        <v>0.3670383790291221</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4422283198183126</v>
+        <v>0.4416071977337844</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4373228016321722</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4385931343591063</v>
+        <v>0.4385931343591064</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3246898646381856</v>
+        <v>0.3223941632764692</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3406685357173847</v>
+        <v>0.3404006649903507</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2764690239855606</v>
+        <v>0.2712571007286547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3112130133042521</v>
+        <v>0.3105756186494716</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4937519834448914</v>
+        <v>0.4942782168672233</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.543555209585569</v>
+        <v>0.5416633282397789</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4905651091844741</v>
+        <v>0.4873393983362016</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.488769103392172</v>
+        <v>0.4848703486885094</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4347807546708471</v>
+        <v>0.4328266222890842</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4670188542790285</v>
+        <v>0.4659209465024625</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3990662396268542</v>
+        <v>0.4019328384790282</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4127047087066913</v>
+        <v>0.4098108485309207</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4313212489932401</v>
+        <v>0.4299908688984729</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4633487671691207</v>
+        <v>0.4625298986497847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3758773530396378</v>
+        <v>0.376114650717548</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.389936377127479</v>
+        <v>0.3903247563558581</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5983315516462796</v>
+        <v>0.597763224410194</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6499441070446764</v>
+        <v>0.6493914769281461</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5919860669615123</v>
+        <v>0.5935380610453719</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5553909278801399</v>
+        <v>0.5531698540978608</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5077087165755106</v>
+        <v>0.5061736013382877</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5428875678480282</v>
+        <v>0.5462953069678534</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4760717226627738</v>
+        <v>0.4788198669588847</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4668932759878329</v>
+        <v>0.4627707254657654</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.6919040510945426</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.780802291096529</v>
+        <v>0.7808022910965289</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6532243209761334</v>
@@ -1513,7 +1513,7 @@
         <v>0.6329740229310382</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6715179370924322</v>
+        <v>0.6715179370924323</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5400553137217815</v>
+        <v>0.5429175119832459</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5420323364035319</v>
+        <v>0.5387360834355555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4804169594412126</v>
+        <v>0.4854281754509138</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4624759438299792</v>
+        <v>0.4631075532866936</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6255299132679903</v>
+        <v>0.6262122937274879</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7258696857506501</v>
+        <v>0.7333093392598465</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6404326693430276</v>
+        <v>0.6323271471229791</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7499024809686632</v>
+        <v>0.7507617151533069</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6070232205136405</v>
+        <v>0.6091274043127389</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6716063575794996</v>
+        <v>0.676405827099167</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5943918637903425</v>
+        <v>0.594340331776638</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6426462756710893</v>
+        <v>0.6457595123972293</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6729520506577528</v>
+        <v>0.6695366912017817</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.673854973662119</v>
+        <v>0.6768416060566845</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5962530474008297</v>
+        <v>0.5959374483296289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.556255456956252</v>
+        <v>0.5587380125519162</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7294018369120917</v>
+        <v>0.7322316692100801</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8152213970962134</v>
+        <v>0.8231972924828628</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7450889923053061</v>
+        <v>0.7412109913603341</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8069341862288842</v>
+        <v>0.8075136657583168</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6939322426772558</v>
+        <v>0.6938922304089401</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7478054447968451</v>
+        <v>0.7486553061704688</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6691217202025903</v>
+        <v>0.6721476297553464</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6961769086139196</v>
+        <v>0.7000099450655</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.2881251362814253</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3712598008806118</v>
+        <v>0.3712598008806117</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2377480754111515</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1744584313400576</v>
+        <v>0.174481370876464</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1720163303739993</v>
+        <v>0.1712501373155456</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2489176637320382</v>
+        <v>0.2491692203955087</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2974834022449004</v>
+        <v>0.2976058103708598</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.27265021915454</v>
+        <v>0.2721171031673614</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3559603317005495</v>
+        <v>0.3582958653595232</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2425802104768902</v>
+        <v>0.2420568086695676</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2271103144975584</v>
+        <v>0.2283115880945399</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3081067402087963</v>
+        <v>0.3084040983296282</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2013739416689959</v>
+        <v>0.203735477094097</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2001913144920861</v>
+        <v>0.1986435844570186</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2796016931752824</v>
+        <v>0.2801714503891268</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3301404297280862</v>
+        <v>0.3280554706314672</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3052493027386323</v>
+        <v>0.3048176084556649</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.382669681052642</v>
+        <v>0.3861327028256145</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2642823074072024</v>
+        <v>0.2634081510032076</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2482629598699192</v>
+        <v>0.2492274347496997</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3289728541307135</v>
+        <v>0.3292569966909226</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22369</v>
+        <v>22790</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17208</v>
+        <v>17290</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10654</v>
+        <v>10494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19403</v>
+        <v>19397</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23523</v>
+        <v>23266</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27672</v>
+        <v>27560</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16124</v>
+        <v>16343</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>28971</v>
+        <v>27238</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>51155</v>
+        <v>50829</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>50245</v>
+        <v>50275</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30072</v>
+        <v>30928</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55674</v>
+        <v>52906</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45571</v>
+        <v>45561</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37173</v>
+        <v>36631</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28979</v>
+        <v>27213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>54527</v>
+        <v>53723</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45872</v>
+        <v>45948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51599</v>
+        <v>51553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34132</v>
+        <v>35200</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>64374</v>
+        <v>62862</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>81848</v>
+        <v>84296</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>81716</v>
+        <v>80143</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56412</v>
+        <v>55477</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>107087</v>
+        <v>102648</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30815</v>
+        <v>31234</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43920</v>
+        <v>45378</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35864</v>
+        <v>36609</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57856</v>
+        <v>55128</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>72617</v>
+        <v>72118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41462</v>
+        <v>40884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47100</v>
+        <v>45514</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>62527</v>
+        <v>61840</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>110348</v>
+        <v>111877</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>92668</v>
+        <v>92371</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>89759</v>
+        <v>89970</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>127112</v>
+        <v>127807</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>57318</v>
+        <v>57638</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74499</v>
+        <v>75697</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63544</v>
+        <v>64375</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>96563</v>
+        <v>96553</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>107930</v>
+        <v>107259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69640</v>
+        <v>69400</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>74807</v>
+        <v>75461</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>95803</v>
+        <v>95277</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>154091</v>
+        <v>158170</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>134246</v>
+        <v>132848</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>130911</v>
+        <v>131337</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>180841</v>
+        <v>179966</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>52110</v>
+        <v>54473</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68426</v>
+        <v>65952</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>61333</v>
+        <v>60106</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>94977</v>
+        <v>94154</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>121386</v>
+        <v>119591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>115037</v>
+        <v>113466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>79785</v>
+        <v>79037</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>126740</v>
+        <v>125236</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>184811</v>
+        <v>182958</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>192299</v>
+        <v>191595</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>149623</v>
+        <v>148658</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>232136</v>
+        <v>229947</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>83434</v>
+        <v>85125</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>103478</v>
+        <v>101775</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94207</v>
+        <v>93083</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>134940</v>
+        <v>134802</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>163391</v>
+        <v>161994</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>155727</v>
+        <v>155445</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>113803</v>
+        <v>113870</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>159777</v>
+        <v>159923</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>239298</v>
+        <v>236698</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>247333</v>
+        <v>250093</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>198547</v>
+        <v>200241</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>284236</v>
+        <v>282567</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>78251</v>
+        <v>78340</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68262</v>
+        <v>67820</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>102169</v>
+        <v>101211</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>160148</v>
+        <v>158714</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>134522</v>
+        <v>134148</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>146627</v>
+        <v>144154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>133105</v>
+        <v>132059</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>233503</v>
+        <v>234958</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>223249</v>
+        <v>222177</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>223624</v>
+        <v>223969</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>246060</v>
+        <v>243671</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>406309</v>
+        <v>407652</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>115531</v>
+        <v>114590</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106580</v>
+        <v>106915</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>142122</v>
+        <v>142245</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>207230</v>
+        <v>206317</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>177318</v>
+        <v>175590</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>191843</v>
+        <v>190226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>178041</v>
+        <v>177374</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>273389</v>
+        <v>273731</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>280701</v>
+        <v>276431</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>281312</v>
+        <v>285790</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>304894</v>
+        <v>302572</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>470809</v>
+        <v>469479</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>102329</v>
+        <v>101562</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96029</v>
+        <v>95499</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>98505</v>
+        <v>99111</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>205475</v>
+        <v>206989</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>135309</v>
+        <v>135065</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>184559</v>
+        <v>184874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>182111</v>
+        <v>181333</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>260698</v>
+        <v>260694</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>248145</v>
+        <v>249515</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>290938</v>
+        <v>292732</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>286335</v>
+        <v>290218</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>478661</v>
+        <v>479381</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>139012</v>
+        <v>136733</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>133473</v>
+        <v>132632</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>136500</v>
+        <v>137781</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>253248</v>
+        <v>251905</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>174409</v>
+        <v>174906</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>228626</v>
+        <v>228093</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>228758</v>
+        <v>226929</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>299797</v>
+        <v>297753</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>301848</v>
+        <v>300611</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>348915</v>
+        <v>350418</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>352549</v>
+        <v>355325</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>537566</v>
+        <v>536811</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>94999</v>
+        <v>94327</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>105194</v>
+        <v>105111</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>92139</v>
+        <v>90402</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>126689</v>
+        <v>126429</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>169324</v>
+        <v>169505</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>192416</v>
+        <v>191747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>184809</v>
+        <v>183594</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>213992</v>
+        <v>212285</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>276311</v>
+        <v>275069</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>309532</v>
+        <v>308804</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>283336</v>
+        <v>285372</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>348693</v>
+        <v>346248</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>126197</v>
+        <v>125808</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>143076</v>
+        <v>142823</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>125269</v>
+        <v>125348</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>158735</v>
+        <v>158893</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>205188</v>
+        <v>204993</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>230078</v>
+        <v>229882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>223017</v>
+        <v>223602</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>243160</v>
+        <v>242188</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>322658</v>
+        <v>321682</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>359816</v>
+        <v>362075</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>338010</v>
+        <v>339961</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>394477</v>
+        <v>390994</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>113348</v>
+        <v>113949</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>134278</v>
+        <v>133462</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>123090</v>
+        <v>124374</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>142995</v>
+        <v>143190</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>208869</v>
+        <v>209097</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>282348</v>
+        <v>285242</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>253075</v>
+        <v>249872</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>346079</v>
+        <v>346476</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>330094</v>
+        <v>331238</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>427618</v>
+        <v>430674</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>387173</v>
+        <v>387140</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>495283</v>
+        <v>497682</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>141241</v>
+        <v>140524</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>166935</v>
+        <v>167675</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>152769</v>
+        <v>152688</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>171991</v>
+        <v>172758</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>243553</v>
+        <v>244498</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>317104</v>
+        <v>320206</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>294431</v>
+        <v>292898</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>372399</v>
+        <v>372667</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>377354</v>
+        <v>377332</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>476135</v>
+        <v>476676</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>435850</v>
+        <v>437822</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>536539</v>
+        <v>539493</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>594849</v>
+        <v>594927</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>579631</v>
+        <v>577050</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>878465</v>
+        <v>879353</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1057388</v>
+        <v>1057823</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>960271</v>
+        <v>958393</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1328015</v>
+        <v>1336728</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1689360</v>
+        <v>1685715</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1565158</v>
+        <v>1573436</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2236835</v>
+        <v>2238993</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>686622</v>
+        <v>694674</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>674571</v>
+        <v>669355</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>986754</v>
+        <v>988764</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1173466</v>
+        <v>1166055</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1075085</v>
+        <v>1073564</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1427662</v>
+        <v>1440582</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1840497</v>
+        <v>1834409</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1710933</v>
+        <v>1717580</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2388321</v>
+        <v>2390384</v>
       </c>
     </row>
     <row r="36">
